--- a/CorEssentials BOM+Sourcing Guide.xlsx
+++ b/CorEssentials BOM+Sourcing Guide.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="356">
   <si>
     <t>Category</t>
   </si>
@@ -1122,6 +1122,11 @@
   </si>
   <si>
     <t>Countersunk M5x25</t>
+  </si>
+  <si>
+    <t>a) can be cnc / cut with hand tools from aluminium composite panel
+b) can be hand cut (knife) from PVC foam or similar
+c) can be ordered form laser-cutting services in 3mm aluminium</t>
   </si>
 </sst>
 </file>
@@ -1476,78 +1481,21 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="12"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="12" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1578,9 +1526,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1600,9 +1545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1611,15 +1553,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="9" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1631,9 +1564,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
@@ -1642,6 +1572,90 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="12" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20 % - Akzent6" xfId="13" builtinId="50"/>
@@ -1968,1393 +1982,1396 @@
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="70"/>
-    <col min="2" max="2" width="58" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="105.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="63"/>
+    <col min="1" max="1" width="11.42578125" style="45"/>
+    <col min="2" max="2" width="58" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="89.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="29" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="53">
-        <v>1</v>
-      </c>
-      <c r="D2" s="54">
+      <c r="C2" s="33">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
         <v>25</v>
       </c>
-      <c r="E2" s="63"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="63"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="str">
+      <c r="B4" s="24" t="str">
         <f>CONCATENATE('Frame Calculator'!A18,", L= ",'Frame Calculator'!B18,'Frame Calculator'!C18)</f>
         <v>2020, L= 410mm</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="25">
         <f>'Frame Calculator'!D18</f>
         <v>2</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="54">
         <v>135</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="35" t="str">
         <f>'Frame Calculator'!E18</f>
         <v>Frame x</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="43" t="str">
+      <c r="B5" s="24" t="str">
         <f>CONCATENATE('Frame Calculator'!A19,", L= ",'Frame Calculator'!B19,'Frame Calculator'!C19)</f>
         <v>2020, L= 420mm</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="25">
         <f>'Frame Calculator'!D19</f>
         <v>2</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56" t="str">
+      <c r="D5" s="54"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="35" t="str">
         <f>'Frame Calculator'!E19</f>
         <v>Frame y</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="43" t="str">
+      <c r="B6" s="24" t="str">
         <f>CONCATENATE('Frame Calculator'!A20,", L= ",'Frame Calculator'!B20,'Frame Calculator'!C20)</f>
         <v>2020, L= 351mm</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="25">
         <f>'Frame Calculator'!D20</f>
         <v>1</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56" t="str">
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="35" t="str">
         <f>'Frame Calculator'!E20</f>
         <v>Frame Back</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="str">
+      <c r="B7" s="24" t="str">
         <f>CONCATENATE('Frame Calculator'!A21,", L= ",'Frame Calculator'!B21,'Frame Calculator'!C21)</f>
         <v>4020, L= 410mm</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="25">
         <f>'Frame Calculator'!D21</f>
         <v>2</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="F7" s="56" t="str">
+      <c r="F7" s="35" t="str">
         <f>'Frame Calculator'!E21</f>
         <v>Frame x</v>
       </c>
-      <c r="I7" s="66"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="43" t="str">
+      <c r="B8" s="24" t="str">
         <f>CONCATENATE('Frame Calculator'!A22,", L= ",'Frame Calculator'!B22,'Frame Calculator'!C22)</f>
         <v>4020, L= 420mm</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="25">
         <f>'Frame Calculator'!D22</f>
         <v>4</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56" t="str">
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="35" t="str">
         <f>'Frame Calculator'!E22</f>
         <v>Frame y</v>
       </c>
-      <c r="I8" s="66"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="43" t="str">
+      <c r="B9" s="24" t="str">
         <f>CONCATENATE('Frame Calculator'!A23,", L= ",'Frame Calculator'!B23,'Frame Calculator'!C23)</f>
         <v>3030, L= 681mm</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="25">
         <f>'Frame Calculator'!D23</f>
         <v>4</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="57" t="s">
+      <c r="D9" s="54"/>
+      <c r="E9" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="56" t="str">
+      <c r="F9" s="35" t="str">
         <f>'Frame Calculator'!E23</f>
         <v>Frame z</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="43" t="str">
+      <c r="B10" s="24" t="str">
         <f>CONCATENATE('Frame Calculator'!A24,", L= ",'Frame Calculator'!B24,'Frame Calculator'!C24)</f>
         <v>2020, L= 284mm</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="25">
         <f>'Frame Calculator'!D24</f>
         <v>2</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="58" t="s">
+      <c r="D10" s="54"/>
+      <c r="E10" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="F10" s="56" t="str">
+      <c r="F10" s="35" t="str">
         <f>'Frame Calculator'!E24</f>
         <v>Bed Carrier</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="43" t="str">
+      <c r="B11" s="24" t="str">
         <f>CONCATENATE('Frame Calculator'!A25,", L= ",'Frame Calculator'!B25,'Frame Calculator'!C25)</f>
         <v>Carbon 20x20, L= mm</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="25">
         <f>'Frame Calculator'!D25</f>
         <v>1</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="27">
         <v>18</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="35" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="25">
         <v>50</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="28">
         <v>82</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="67"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="21">
         <v>4</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="22">
         <v>4</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="21">
         <v>25</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="22">
         <v>2</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="21">
         <v>4</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="56">
         <v>100</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="23">
         <v>4</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="23">
         <v>4</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="23">
         <v>4</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="23">
         <v>4</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="23">
         <v>8</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="23">
         <v>4</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="23">
         <v>83</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="23">
         <v>9</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="23">
         <v>6</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="23">
         <v>10</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="23">
         <v>3</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="23">
         <v>2</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="23">
         <v>4</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="23">
         <v>29</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="23">
         <v>12</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="23">
         <v>4</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="56"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="42">
-        <v>1</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="56"/>
+      <c r="C33" s="23">
+        <v>1</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="35"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="23">
         <v>3</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="56"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="23">
         <v>10</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="56"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="23">
         <v>5</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="23">
         <v>3</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="23">
         <v>2</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="23">
         <v>6</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="35"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="23">
         <v>11</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="35"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="23">
         <f>83+23</f>
         <v>106</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="23">
         <v>50</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="35"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="23">
         <v>9</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="56"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="23">
         <v>8</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="56"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="35"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="23">
         <v>4</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="56" t="s">
+      <c r="D45" s="58"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="35" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="67"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="36" t="str">
+      <c r="B47" s="17" t="str">
         <f>CONCATENATE('Frame Calculator'!A29,", L= ",'Frame Calculator'!B29,'Frame Calculator'!C29)</f>
         <v>8mm Rod, L= 404mm</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="18">
         <f>'Frame Calculator'!D29</f>
         <v>4</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="19">
         <v>16</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E47" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="F47" s="56" t="str">
+      <c r="F47" s="35" t="str">
         <f>'Frame Calculator'!E29</f>
         <v>z Axis</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="36" t="str">
+      <c r="B48" s="17" t="str">
         <f>CONCATENATE('Frame Calculator'!A30,", L= ",'Frame Calculator'!B30,'Frame Calculator'!C30)</f>
         <v>TR8x1,5, L= 365mm</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="18">
         <f>'Frame Calculator'!D30</f>
         <v>2</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="19">
         <v>12</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F48" s="56" t="str">
+      <c r="F48" s="35" t="str">
         <f>'Frame Calculator'!E30</f>
         <v>z Axis</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="36" t="str">
+      <c r="B49" s="17" t="str">
         <f>CONCATENATE('Frame Calculator'!A31,", L= ",'Frame Calculator'!B31,'Frame Calculator'!C31)</f>
         <v>MGN9H, L= 350mm</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="18">
         <f>'Frame Calculator'!D31</f>
         <v>1</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="19">
         <v>14</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F49" s="56" t="str">
+      <c r="F49" s="35" t="str">
         <f>'Frame Calculator'!E31</f>
         <v>x Axis</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="36" t="str">
+      <c r="B50" s="17" t="str">
         <f>CONCATENATE('Frame Calculator'!A32,", L= ",'Frame Calculator'!B32,'Frame Calculator'!C32)</f>
         <v>MGN9H, L= 350mm</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="18">
         <f>'Frame Calculator'!D32</f>
         <v>2</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="19">
         <v>28</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F50" s="56" t="str">
+      <c r="F50" s="35" t="str">
         <f>'Frame Calculator'!E32</f>
         <v>y-Axis</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="18">
         <v>2</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="19">
         <v>15</v>
       </c>
-      <c r="E51" s="58" t="s">
+      <c r="E51" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="F51" s="56"/>
+      <c r="F51" s="35"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="C52" s="37">
-        <v>1</v>
-      </c>
-      <c r="D52" s="38">
+      <c r="C52" s="18">
+        <v>1</v>
+      </c>
+      <c r="D52" s="19">
         <v>8</v>
       </c>
-      <c r="E52" s="58" t="s">
+      <c r="E52" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="F52" s="56"/>
+      <c r="F52" s="35"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="C53" s="37">
-        <v>1</v>
-      </c>
-      <c r="D53" s="38">
+      <c r="C53" s="18">
+        <v>1</v>
+      </c>
+      <c r="D53" s="19">
         <v>18</v>
       </c>
-      <c r="E53" s="58" t="s">
+      <c r="E53" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="F53" s="56"/>
+      <c r="F53" s="35"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="73" t="s">
+      <c r="A54" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="18">
         <v>2</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="19">
         <v>6</v>
       </c>
-      <c r="E54" s="58" t="s">
+      <c r="E54" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="F54" s="56"/>
+      <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="18">
         <v>6</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="19">
         <v>16</v>
       </c>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="F55" s="56"/>
+      <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="73" t="s">
+      <c r="A56" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="18">
         <v>2</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="19">
         <v>5</v>
       </c>
-      <c r="E56" s="58" t="s">
+      <c r="E56" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="F56" s="56"/>
+      <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="36" t="s">
+      <c r="B57" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C57" s="37">
+      <c r="C57" s="18">
         <v>8</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="19">
         <v>7</v>
       </c>
-      <c r="E57" s="58" t="s">
+      <c r="E57" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="F57" s="56"/>
+      <c r="F57" s="35"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="67"/>
+      <c r="E58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C59" s="34">
-        <v>1</v>
-      </c>
-      <c r="D59" s="35">
+      <c r="C59" s="15">
+        <v>1</v>
+      </c>
+      <c r="D59" s="16">
         <v>70</v>
       </c>
-      <c r="E59" s="58" t="s">
+      <c r="E59" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="F59" s="56"/>
+      <c r="F59" s="35"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="74" t="s">
+      <c r="A60" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C60" s="34">
-        <v>1</v>
-      </c>
-      <c r="D60" s="35">
+      <c r="C60" s="15">
+        <v>1</v>
+      </c>
+      <c r="D60" s="16">
         <v>3</v>
       </c>
-      <c r="E60" s="58" t="s">
+      <c r="E60" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="F60" s="56"/>
+      <c r="F60" s="35"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="74" t="s">
+      <c r="A61" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C61" s="34">
+      <c r="C61" s="15">
         <v>2</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="16">
         <v>8</v>
       </c>
-      <c r="E61" s="58" t="s">
+      <c r="E61" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="F61" s="56"/>
+      <c r="F61" s="35"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="74" t="s">
+      <c r="A62" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C62" s="34">
-        <v>1</v>
-      </c>
-      <c r="D62" s="35">
+      <c r="C62" s="15">
+        <v>1</v>
+      </c>
+      <c r="D62" s="16">
         <v>8</v>
       </c>
-      <c r="E62" s="58" t="s">
+      <c r="E62" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="F62" s="56"/>
+      <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="C63" s="34">
-        <v>1</v>
-      </c>
-      <c r="D63" s="35">
+      <c r="C63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="16">
         <v>11</v>
       </c>
-      <c r="E63" s="58" t="s">
+      <c r="E63" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="F63" s="56"/>
+      <c r="F63" s="35"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="74" t="s">
+      <c r="A64" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="C64" s="34">
+      <c r="C64" s="15">
         <v>2</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="16">
         <v>9</v>
       </c>
-      <c r="E64" s="58" t="s">
+      <c r="E64" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="F64" s="56"/>
+      <c r="F64" s="35"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="74" t="s">
+      <c r="A65" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C65" s="34">
-        <v>1</v>
-      </c>
-      <c r="D65" s="35">
+      <c r="C65" s="15">
+        <v>1</v>
+      </c>
+      <c r="D65" s="16">
         <v>8</v>
       </c>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="F65" s="56"/>
+      <c r="F65" s="35"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="74" t="s">
+      <c r="A66" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="C66" s="34">
-        <v>1</v>
-      </c>
-      <c r="D66" s="35">
+      <c r="C66" s="15">
+        <v>1</v>
+      </c>
+      <c r="D66" s="16">
         <v>9</v>
       </c>
-      <c r="E66" s="58" t="s">
+      <c r="E66" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="F66" s="56"/>
+      <c r="F66" s="35"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C67" s="34">
-        <v>1</v>
-      </c>
-      <c r="D67" s="35">
+      <c r="C67" s="15">
+        <v>1</v>
+      </c>
+      <c r="D67" s="16">
         <v>50</v>
       </c>
-      <c r="E67" s="58" t="s">
+      <c r="E67" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="F67" s="56"/>
+      <c r="F67" s="35"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="74" t="s">
+      <c r="A68" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C68" s="34">
-        <v>1</v>
-      </c>
-      <c r="D68" s="35">
+      <c r="C68" s="15">
+        <v>1</v>
+      </c>
+      <c r="D68" s="16">
         <v>55</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="E68" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="F68" s="59" t="s">
+      <c r="F68" s="38" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="74" t="s">
+      <c r="A69" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C69" s="34">
-        <v>1</v>
-      </c>
-      <c r="D69" s="35">
+      <c r="C69" s="15">
+        <v>1</v>
+      </c>
+      <c r="D69" s="16">
         <v>25</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E69" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="F69" s="56"/>
+      <c r="F69" s="35"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="74" t="s">
+      <c r="A70" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C70" s="34">
-        <v>1</v>
-      </c>
-      <c r="D70" s="35">
+      <c r="C70" s="15">
+        <v>1</v>
+      </c>
+      <c r="D70" s="16">
         <v>3</v>
       </c>
-      <c r="E70" s="59" t="s">
+      <c r="E70" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="F70" s="56"/>
+      <c r="F70" s="35"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="C71" s="34">
+      <c r="C71" s="15">
         <v>4</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="16">
         <v>40</v>
       </c>
-      <c r="E71" s="58" t="s">
+      <c r="E71" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="F71" s="56"/>
+      <c r="F71" s="35"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="74" t="s">
+      <c r="A72" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C72" s="34">
-        <v>1</v>
-      </c>
-      <c r="D72" s="35">
+      <c r="C72" s="15">
+        <v>1</v>
+      </c>
+      <c r="D72" s="16">
         <v>30</v>
       </c>
-      <c r="E72" s="59" t="s">
+      <c r="E72" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="F72" s="56"/>
+      <c r="F72" s="35"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="C73" s="34">
-        <v>1</v>
-      </c>
-      <c r="D73" s="35">
+      <c r="C73" s="15">
+        <v>1</v>
+      </c>
+      <c r="D73" s="16">
         <v>3</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="37" t="s">
         <v>336</v>
       </c>
-      <c r="F73" s="56"/>
+      <c r="F73" s="35"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="74" t="s">
+      <c r="A74" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C74" s="34">
-        <v>1</v>
-      </c>
-      <c r="D74" s="35">
+      <c r="C74" s="15">
+        <v>1</v>
+      </c>
+      <c r="D74" s="16">
         <v>5</v>
       </c>
-      <c r="E74" s="58" t="s">
+      <c r="E74" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F74" s="56"/>
+      <c r="F74" s="35"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="63"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="75" t="s">
+      <c r="A76" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="B76" s="30" t="str">
+      <c r="B76" s="11" t="str">
         <f>CONCATENATE('Frame Calculator'!A36,", ",'Frame Calculator'!B36,"x",'Frame Calculator'!B37,"mm")</f>
         <v>Bed Plate
 t = 8mm, 320x320mm</v>
       </c>
-      <c r="C76" s="31">
-        <v>1</v>
-      </c>
-      <c r="D76" s="32">
+      <c r="C76" s="12">
+        <v>1</v>
+      </c>
+      <c r="D76" s="13">
         <v>42</v>
       </c>
-      <c r="E76" s="58" t="s">
+      <c r="E76" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="F76" s="56"/>
+      <c r="F76" s="35"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="75" t="s">
+      <c r="A77" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="B77" s="30" t="str">
+      <c r="B77" s="11" t="str">
         <f>CONCATENATE('Frame Calculator'!A38,", ",'Frame Calculator'!B38,"x",'Frame Calculator'!B39,"mm")</f>
         <v>Silicone Heater, 280x280mm</v>
       </c>
-      <c r="C77" s="31">
-        <v>1</v>
-      </c>
-      <c r="D77" s="32">
+      <c r="C77" s="12">
+        <v>1</v>
+      </c>
+      <c r="D77" s="13">
         <v>20</v>
       </c>
-      <c r="E77" s="58" t="s">
+      <c r="E77" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="F77" s="56"/>
+      <c r="F77" s="35"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="75" t="s">
+      <c r="A78" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="B78" s="30" t="str">
+      <c r="B78" s="11" t="str">
         <f>CONCATENATE('Frame Calculator'!A40,", ",'Frame Calculator'!B40,"x",'Frame Calculator'!B41,"mm")</f>
         <v>Springsteel Sheet, 310x310mm</v>
       </c>
-      <c r="C78" s="31">
-        <v>1</v>
-      </c>
-      <c r="D78" s="32">
+      <c r="C78" s="12">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13">
         <v>37</v>
       </c>
-      <c r="E78" s="58" t="s">
+      <c r="E78" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="F78" s="56"/>
+      <c r="F78" s="35"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="67"/>
+      <c r="E79" s="43"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="26">
-        <v>1</v>
-      </c>
-      <c r="D80" s="27">
+      <c r="C80" s="8">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9">
         <v>70</v>
       </c>
-      <c r="E80" s="58" t="s">
+      <c r="E80" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="F80" s="59" t="s">
+      <c r="F80" s="38" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="76" t="s">
+      <c r="A81" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A45,", ",'Frame Calculator'!B45,"x",'Frame Calculator'!B46,"mm")</f>
-        <v>Front + Back, 410x681mm</v>
-      </c>
-      <c r="C81" s="26">
+      <c r="B81" s="6" t="str">
+        <f>CONCATENATE('Frame Calculator'!A45,", ",'Frame Calculator'!B45,"x",'Frame Calculator'!B46,"mm, thickness: 3 to 4 mm")</f>
+        <v>Front + Back, 410x681mm, thickness: 3 to 4 mm</v>
+      </c>
+      <c r="C81" s="8">
         <f>'Frame Calculator'!D45</f>
         <v>2</v>
       </c>
-      <c r="D81" s="28">
+      <c r="D81" s="55">
         <v>150</v>
       </c>
-      <c r="E81" s="55" t="s">
+      <c r="E81" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="F81" s="56"/>
+      <c r="F81" s="79" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="76" t="s">
+      <c r="A82" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A47,", ",'Frame Calculator'!B47,"x",'Frame Calculator'!B48,"mm")</f>
-        <v>Left+Right, 420x681mm</v>
-      </c>
-      <c r="C82" s="26">
+      <c r="B82" s="6" t="str">
+        <f>CONCATENATE('Frame Calculator'!A47,", ",'Frame Calculator'!B47,"x",'Frame Calculator'!B48,"mm, thickness: 3 to 4 mm")</f>
+        <v>Left+Right, 420x681mm, thickness: 3 to 4 mm</v>
+      </c>
+      <c r="C82" s="8">
         <f>'Frame Calculator'!D47</f>
         <v>2</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="56"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="77"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="76" t="s">
+      <c r="A83" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A49,", ",'Frame Calculator'!B49,"x",'Frame Calculator'!B50,"mm")</f>
-        <v>Inner, Top, Bottom, 460x470mm</v>
-      </c>
-      <c r="C83" s="26">
+      <c r="B83" s="6" t="str">
+        <f>CONCATENATE('Frame Calculator'!A49,", ",'Frame Calculator'!B49,"x",'Frame Calculator'!B50,"mm, thickness: 3 to 4 mm")</f>
+        <v>Inner, Top, Bottom, 460x470mm, thickness: 3 to 4 mm</v>
+      </c>
+      <c r="C83" s="8">
         <f>'Frame Calculator'!D49</f>
         <v>3</v>
       </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="56"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="78"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="76" t="s">
+      <c r="A84" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C84" s="26">
-        <v>10</v>
-      </c>
-      <c r="D84" s="29">
+      <c r="C84" s="8">
+        <v>1</v>
+      </c>
+      <c r="D84" s="10">
         <v>5</v>
       </c>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="F84" s="56"/>
+      <c r="F84" s="35"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="67"/>
+      <c r="E85" s="43"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="68" t="s">
+      <c r="A86" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="15">
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="5">
         <f>SUM(D2:D84)</f>
         <v>1172</v>
       </c>
-      <c r="E86" s="67"/>
+      <c r="E86" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="F81:F83"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E8"/>
@@ -3426,639 +3443,639 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>310</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="71"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>310</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="71"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>310</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="4">
         <v>2020</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <f>B12+100</f>
         <v>410</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="4">
         <v>2020</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <f>B13+110</f>
         <v>420</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="4">
         <v>2020</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <f>B12+41</f>
         <v>351</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="4">
         <v>4020</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <f>B12+100</f>
         <v>410</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="4">
         <v>4020</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <f>B13+110</f>
         <v>420</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="3">
         <v>4</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>3030</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <f>B14+371</f>
         <v>681</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="4">
         <v>2020</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <f>B13-26</f>
         <v>284</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="3">
         <v>2</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="62"/>
+      <c r="D28" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="2">
         <f>B14+94</f>
         <v>404</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="3">
         <v>4</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="2">
         <f>B14+55</f>
         <v>365</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="3">
         <v>2</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <f>B12+40</f>
         <v>350</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D31" s="9">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="2">
         <f>B13+40</f>
         <v>350</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="3">
         <v>2</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="62"/>
+      <c r="D35" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <f>B12+10</f>
         <v>320</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="63">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="5">
+      <c r="A37" s="69"/>
+      <c r="B37" s="2">
         <f>B13+10</f>
         <v>320</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="64"/>
+      <c r="E37" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="2">
         <f>B12-30</f>
         <v>280</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D38" s="17">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="63">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="5">
+      <c r="A39" s="66"/>
+      <c r="B39" s="2">
         <f>B13-30</f>
         <v>280</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="64"/>
+      <c r="E39" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="2">
         <f>B12</f>
         <v>310</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="17">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="63">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="5">
+      <c r="A41" s="66"/>
+      <c r="B41" s="2">
         <f>B14</f>
         <v>310</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="64"/>
+      <c r="E41" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="9" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="2">
         <f>B18</f>
         <v>410</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="63">
         <v>2</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="5">
+      <c r="A46" s="59"/>
+      <c r="B46" s="2">
         <f>B23</f>
         <v>681</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="64"/>
+      <c r="E46" s="3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="2">
         <f>B19</f>
         <v>420</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="63">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="5">
+      <c r="A48" s="59"/>
+      <c r="B48" s="2">
         <f>B23</f>
         <v>681</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="64"/>
+      <c r="E48" s="3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="60" t="s">
         <v>324</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="2">
         <f>B45+20*2+10</f>
         <v>460</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="63">
         <v>3</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="5">
+      <c r="A50" s="60"/>
+      <c r="B50" s="2">
         <f>B47+20*2+10</f>
         <v>470</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="64"/>
+      <c r="E50" s="3" t="s">
         <v>273</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/CorEssentials BOM+Sourcing Guide.xlsx
+++ b/CorEssentials BOM+Sourcing Guide.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="360" yWindow="60" windowWidth="27315" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="CorEssentials BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Frame Calculator" sheetId="5" r:id="rId2"/>
+    <sheet name="Configurator" sheetId="5" r:id="rId1"/>
+    <sheet name="CorEssentials BOM" sheetId="1" r:id="rId2"/>
     <sheet name="Fusion360_BOM_Import" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="360">
   <si>
     <t>Category</t>
   </si>
@@ -744,9 +744,6 @@
   </si>
   <si>
     <t>BuiltPLate</t>
-  </si>
-  <si>
-    <t>Frame Calculator</t>
   </si>
   <si>
     <t>Attention: The files for the panels are only available for the standard 310 x 310 x 310 mm³ built volume. If you plan to built any other size you have to edit the panels yourself.</t>
@@ -1127,6 +1124,21 @@
     <t>a) can be cnc / cut with hand tools from aluminium composite panel
 b) can be hand cut (knife) from PVC foam or similar
 c) can be ordered form laser-cutting services in 3mm aluminium</t>
+  </si>
+  <si>
+    <t>Fully enclosed?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Corner Connection?</t>
+  </si>
+  <si>
+    <t>automatic connectors (more expensive but cleaner)</t>
+  </si>
+  <si>
+    <t>Configurator</t>
   </si>
 </sst>
 </file>
@@ -1572,27 +1584,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1632,11 +1623,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="12" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="12" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1647,14 +1638,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1977,13 +1989,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="1">
+        <v>310</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="1">
+        <v>310</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" s="1">
+        <v>310</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="64"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B12+100</f>
+        <v>410</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="2">
+        <f>B13+110</f>
+        <v>420</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="2">
+        <f>B12+41</f>
+        <v>351</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>4020</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B12+100</f>
+        <v>410</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>4020</v>
+      </c>
+      <c r="B25" s="2">
+        <f>B13+110</f>
+        <v>420</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>3030</v>
+      </c>
+      <c r="B26" s="2">
+        <f>B14+371</f>
+        <v>681</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="2">
+        <f>B13-26</f>
+        <v>284</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="2">
+        <f>B14+94</f>
+        <v>404</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B14+55</f>
+        <v>365</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B12+40</f>
+        <v>350</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="2">
+        <f>B13+40</f>
+        <v>350</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" s="2">
+        <f>B12+10</f>
+        <v>320</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="56">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="B40" s="2">
+        <f>B13+10</f>
+        <v>320</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="2">
+        <f>B12-30</f>
+        <v>280</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="56">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="2">
+        <f>B13-30</f>
+        <v>280</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="2">
+        <f>B12</f>
+        <v>310</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="56">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="2">
+        <f>B14</f>
+        <v>310</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="2">
+        <f>B21</f>
+        <v>410</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="56">
+        <v>2</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="2">
+        <f>B26</f>
+        <v>681</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B50" s="2">
+        <f>B22</f>
+        <v>420</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="56">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="52"/>
+      <c r="B51" s="2">
+        <f>B26</f>
+        <v>681</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="57"/>
+      <c r="E51" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" s="2">
+        <f>B48+20*2+10</f>
+        <v>460</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="56">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="2">
+        <f>B50+20*2+10</f>
+        <v>470</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="57"/>
+      <c r="E53" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A48:A49"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"automatic connectors (more expensive but cleaner),blind corner (cheaper but not as clean)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,10 +2709,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2022,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="33">
         <v>1</v>
@@ -2040,21 +2738,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A18,", L= ",'Frame Calculator'!B18,'Frame Calculator'!C18)</f>
+        <f>CONCATENATE(Configurator!A21,", L= ",Configurator!B21,Configurator!C21)</f>
         <v>2020, L= 410mm</v>
       </c>
       <c r="C4" s="25">
-        <f>'Frame Calculator'!D18</f>
+        <f>Configurator!D21</f>
         <v>2</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="75">
         <v>135</v>
       </c>
-      <c r="E4" s="53" t="s">
-        <v>265</v>
+      <c r="E4" s="74" t="s">
+        <v>264</v>
       </c>
       <c r="F4" s="35" t="str">
-        <f>'Frame Calculator'!E18</f>
+        <f>Configurator!E21</f>
         <v>Frame x</v>
       </c>
     </row>
@@ -2063,17 +2761,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A19,", L= ",'Frame Calculator'!B19,'Frame Calculator'!C19)</f>
+        <f>CONCATENATE(Configurator!A22,", L= ",Configurator!B22,Configurator!C22)</f>
         <v>2020, L= 420mm</v>
       </c>
       <c r="C5" s="25">
-        <f>'Frame Calculator'!D19</f>
+        <f>Configurator!D22</f>
         <v>2</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="53"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="35" t="str">
-        <f>'Frame Calculator'!E19</f>
+        <f>Configurator!E22</f>
         <v>Frame y</v>
       </c>
     </row>
@@ -2082,17 +2780,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A20,", L= ",'Frame Calculator'!B20,'Frame Calculator'!C20)</f>
+        <f>CONCATENATE(Configurator!A23,", L= ",Configurator!B23,Configurator!C23)</f>
         <v>2020, L= 351mm</v>
       </c>
       <c r="C6" s="25">
-        <f>'Frame Calculator'!D20</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="53"/>
+        <f>Configurator!D23</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="35" t="str">
-        <f>'Frame Calculator'!E20</f>
+        <f>Configurator!E23</f>
         <v>Frame Back</v>
       </c>
     </row>
@@ -2101,19 +2799,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A21,", L= ",'Frame Calculator'!B21,'Frame Calculator'!C21)</f>
+        <f>CONCATENATE(Configurator!A24,", L= ",Configurator!B24,Configurator!C24)</f>
         <v>4020, L= 410mm</v>
       </c>
       <c r="C7" s="25">
-        <f>'Frame Calculator'!D21</f>
+        <f>Configurator!D24</f>
         <v>2</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="53" t="s">
-        <v>268</v>
+      <c r="D7" s="75"/>
+      <c r="E7" s="74" t="s">
+        <v>267</v>
       </c>
       <c r="F7" s="35" t="str">
-        <f>'Frame Calculator'!E21</f>
+        <f>Configurator!E24</f>
         <v>Frame x</v>
       </c>
       <c r="I7" s="42"/>
@@ -2123,17 +2821,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A22,", L= ",'Frame Calculator'!B22,'Frame Calculator'!C22)</f>
+        <f>CONCATENATE(Configurator!A25,", L= ",Configurator!B25,Configurator!C25)</f>
         <v>4020, L= 420mm</v>
       </c>
       <c r="C8" s="25">
-        <f>'Frame Calculator'!D22</f>
+        <f>Configurator!D25</f>
         <v>4</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="35" t="str">
-        <f>'Frame Calculator'!E22</f>
+        <f>Configurator!E25</f>
         <v>Frame y</v>
       </c>
       <c r="I8" s="42"/>
@@ -2143,19 +2841,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A23,", L= ",'Frame Calculator'!B23,'Frame Calculator'!C23)</f>
+        <f>CONCATENATE(Configurator!A26,", L= ",Configurator!B26,Configurator!C26)</f>
         <v>3030, L= 681mm</v>
       </c>
       <c r="C9" s="25">
-        <f>'Frame Calculator'!D23</f>
+        <f>Configurator!D26</f>
         <v>4</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F9" s="35" t="str">
-        <f>'Frame Calculator'!E23</f>
+        <f>Configurator!E26</f>
         <v>Frame z</v>
       </c>
     </row>
@@ -2164,19 +2862,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A24,", L= ",'Frame Calculator'!B24,'Frame Calculator'!C24)</f>
+        <f>CONCATENATE(Configurator!A27,", L= ",Configurator!B27,Configurator!C27)</f>
         <v>2020, L= 284mm</v>
       </c>
       <c r="C10" s="25">
-        <f>'Frame Calculator'!D24</f>
+        <f>Configurator!D27</f>
         <v>2</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="35" t="str">
-        <f>'Frame Calculator'!E24</f>
+        <f>Configurator!E27</f>
         <v>Bed Carrier</v>
       </c>
     </row>
@@ -2185,21 +2883,21 @@
         <v>3</v>
       </c>
       <c r="B11" s="24" t="str">
-        <f>CONCATENATE('Frame Calculator'!A25,", L= ",'Frame Calculator'!B25,'Frame Calculator'!C25)</f>
+        <f>CONCATENATE(Configurator!A28,", L= ",Configurator!B28,Configurator!C28)</f>
         <v>Carbon 20x20, L= mm</v>
       </c>
       <c r="C11" s="25">
-        <f>'Frame Calculator'!D25</f>
+        <f>Configurator!D28</f>
         <v>1</v>
       </c>
       <c r="D11" s="27">
         <v>18</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,16 +2905,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" s="25">
+        <f>IF(Configurator!B17="automatic connectors (more expensive but cleaner)",50,0)</f>
         <v>50</v>
       </c>
       <c r="D12" s="28">
+        <f>IF(Configurator!B17="automatic connectors (more expensive but cleaner)",82,0)</f>
         <v>82</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F12" s="35"/>
     </row>
@@ -2228,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="21">
         <v>4</v>
@@ -2237,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F14" s="35"/>
     </row>
@@ -2255,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F15" s="35"/>
     </row>
@@ -2269,7 +2969,7 @@
       <c r="C16" s="21">
         <v>4</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="77">
         <v>100</v>
       </c>
       <c r="E16" s="37"/>
@@ -2285,7 +2985,7 @@
       <c r="C17" s="23">
         <v>4</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="37"/>
       <c r="F17" s="35"/>
     </row>
@@ -2299,7 +2999,7 @@
       <c r="C18" s="23">
         <v>4</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="37"/>
       <c r="F18" s="35"/>
     </row>
@@ -2313,7 +3013,7 @@
       <c r="C19" s="23">
         <v>4</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="37"/>
       <c r="F19" s="35"/>
     </row>
@@ -2327,7 +3027,7 @@
       <c r="C20" s="23">
         <v>4</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="37"/>
       <c r="F20" s="35"/>
     </row>
@@ -2341,7 +3041,7 @@
       <c r="C21" s="23">
         <v>8</v>
       </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="37"/>
       <c r="F21" s="35"/>
     </row>
@@ -2355,7 +3055,7 @@
       <c r="C22" s="23">
         <v>4</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="37"/>
       <c r="F22" s="35"/>
     </row>
@@ -2364,12 +3064,12 @@
         <v>6</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C23" s="23">
         <v>83</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="37"/>
       <c r="F23" s="35"/>
     </row>
@@ -2383,7 +3083,7 @@
       <c r="C24" s="23">
         <v>9</v>
       </c>
-      <c r="D24" s="57"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="37"/>
       <c r="F24" s="35"/>
     </row>
@@ -2395,9 +3095,10 @@
         <v>93</v>
       </c>
       <c r="C25" s="23">
+        <f>IF(Configurator!B17="automatic connectors (more expensive but cleaner)",6,50)</f>
         <v>6</v>
       </c>
-      <c r="D25" s="57"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="37"/>
       <c r="F25" s="35"/>
     </row>
@@ -2411,7 +3112,7 @@
       <c r="C26" s="23">
         <v>10</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="37"/>
       <c r="F26" s="35"/>
     </row>
@@ -2425,7 +3126,7 @@
       <c r="C27" s="23">
         <v>3</v>
       </c>
-      <c r="D27" s="57"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="37"/>
       <c r="F27" s="35"/>
     </row>
@@ -2439,7 +3140,7 @@
       <c r="C28" s="23">
         <v>2</v>
       </c>
-      <c r="D28" s="57"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="37"/>
       <c r="F28" s="35"/>
     </row>
@@ -2453,7 +3154,7 @@
       <c r="C29" s="23">
         <v>4</v>
       </c>
-      <c r="D29" s="57"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="37"/>
       <c r="F29" s="35"/>
     </row>
@@ -2467,7 +3168,7 @@
       <c r="C30" s="23">
         <v>29</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="37"/>
       <c r="F30" s="35"/>
     </row>
@@ -2481,7 +3182,7 @@
       <c r="C31" s="23">
         <v>12</v>
       </c>
-      <c r="D31" s="57"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="37"/>
       <c r="F31" s="35"/>
     </row>
@@ -2495,7 +3196,7 @@
       <c r="C32" s="23">
         <v>4</v>
       </c>
-      <c r="D32" s="57"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="37"/>
       <c r="F32" s="35"/>
     </row>
@@ -2509,7 +3210,7 @@
       <c r="C33" s="23">
         <v>1</v>
       </c>
-      <c r="D33" s="57"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="37"/>
       <c r="F33" s="35"/>
     </row>
@@ -2523,7 +3224,7 @@
       <c r="C34" s="23">
         <v>3</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="37"/>
       <c r="F34" s="35"/>
     </row>
@@ -2537,7 +3238,7 @@
       <c r="C35" s="23">
         <v>10</v>
       </c>
-      <c r="D35" s="57"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="37"/>
       <c r="F35" s="35"/>
     </row>
@@ -2551,7 +3252,7 @@
       <c r="C36" s="23">
         <v>5</v>
       </c>
-      <c r="D36" s="57"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="37"/>
       <c r="F36" s="35"/>
     </row>
@@ -2565,7 +3266,7 @@
       <c r="C37" s="23">
         <v>3</v>
       </c>
-      <c r="D37" s="57"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="37"/>
       <c r="F37" s="35"/>
     </row>
@@ -2579,7 +3280,7 @@
       <c r="C38" s="23">
         <v>2</v>
       </c>
-      <c r="D38" s="57"/>
+      <c r="D38" s="78"/>
       <c r="E38" s="37"/>
       <c r="F38" s="35"/>
     </row>
@@ -2593,7 +3294,7 @@
       <c r="C39" s="23">
         <v>6</v>
       </c>
-      <c r="D39" s="57"/>
+      <c r="D39" s="78"/>
       <c r="E39" s="37"/>
       <c r="F39" s="35"/>
     </row>
@@ -2602,12 +3303,12 @@
         <v>6</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C40" s="23">
         <v>11</v>
       </c>
-      <c r="D40" s="57"/>
+      <c r="D40" s="78"/>
       <c r="E40" s="37"/>
       <c r="F40" s="35"/>
     </row>
@@ -2616,13 +3317,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C41" s="23">
         <f>83+23</f>
         <v>106</v>
       </c>
-      <c r="D41" s="57"/>
+      <c r="D41" s="78"/>
       <c r="E41" s="37"/>
       <c r="F41" s="35"/>
     </row>
@@ -2631,12 +3332,12 @@
         <v>6</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C42" s="23">
         <v>50</v>
       </c>
-      <c r="D42" s="57"/>
+      <c r="D42" s="78"/>
       <c r="E42" s="37"/>
       <c r="F42" s="35"/>
     </row>
@@ -2645,12 +3346,12 @@
         <v>6</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C43" s="23">
         <v>9</v>
       </c>
-      <c r="D43" s="57"/>
+      <c r="D43" s="78"/>
       <c r="E43" s="37"/>
       <c r="F43" s="35"/>
     </row>
@@ -2664,7 +3365,7 @@
       <c r="C44" s="23">
         <v>8</v>
       </c>
-      <c r="D44" s="57"/>
+      <c r="D44" s="78"/>
       <c r="E44" s="37"/>
       <c r="F44" s="35"/>
     </row>
@@ -2673,15 +3374,15 @@
         <v>6</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C45" s="23">
         <v>4</v>
       </c>
-      <c r="D45" s="58"/>
+      <c r="D45" s="79"/>
       <c r="E45" s="37"/>
       <c r="F45" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,21 +3393,21 @@
         <v>4</v>
       </c>
       <c r="B47" s="17" t="str">
-        <f>CONCATENATE('Frame Calculator'!A29,", L= ",'Frame Calculator'!B29,'Frame Calculator'!C29)</f>
+        <f>CONCATENATE(Configurator!A32,", L= ",Configurator!B32,Configurator!C32)</f>
         <v>8mm Rod, L= 404mm</v>
       </c>
       <c r="C47" s="18">
-        <f>'Frame Calculator'!D29</f>
+        <f>Configurator!D32</f>
         <v>4</v>
       </c>
       <c r="D47" s="19">
         <v>16</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F47" s="35" t="str">
-        <f>'Frame Calculator'!E29</f>
+        <f>Configurator!E32</f>
         <v>z Axis</v>
       </c>
     </row>
@@ -2715,21 +3416,21 @@
         <v>4</v>
       </c>
       <c r="B48" s="17" t="str">
-        <f>CONCATENATE('Frame Calculator'!A30,", L= ",'Frame Calculator'!B30,'Frame Calculator'!C30)</f>
+        <f>CONCATENATE(Configurator!A33,", L= ",Configurator!B33,Configurator!C33)</f>
         <v>TR8x1,5, L= 365mm</v>
       </c>
       <c r="C48" s="18">
-        <f>'Frame Calculator'!D30</f>
+        <f>Configurator!D33</f>
         <v>2</v>
       </c>
       <c r="D48" s="19">
         <v>12</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F48" s="35" t="str">
-        <f>'Frame Calculator'!E30</f>
+        <f>Configurator!E33</f>
         <v>z Axis</v>
       </c>
     </row>
@@ -2738,21 +3439,21 @@
         <v>4</v>
       </c>
       <c r="B49" s="17" t="str">
-        <f>CONCATENATE('Frame Calculator'!A31,", L= ",'Frame Calculator'!B31,'Frame Calculator'!C31)</f>
+        <f>CONCATENATE(Configurator!A34,", L= ",Configurator!B34,Configurator!C34)</f>
         <v>MGN9H, L= 350mm</v>
       </c>
       <c r="C49" s="18">
-        <f>'Frame Calculator'!D31</f>
+        <f>Configurator!D34</f>
         <v>1</v>
       </c>
       <c r="D49" s="19">
         <v>14</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F49" s="35" t="str">
-        <f>'Frame Calculator'!E31</f>
+        <f>Configurator!E34</f>
         <v>x Axis</v>
       </c>
     </row>
@@ -2761,21 +3462,21 @@
         <v>4</v>
       </c>
       <c r="B50" s="17" t="str">
-        <f>CONCATENATE('Frame Calculator'!A32,", L= ",'Frame Calculator'!B32,'Frame Calculator'!C32)</f>
+        <f>CONCATENATE(Configurator!A35,", L= ",Configurator!B35,Configurator!C35)</f>
         <v>MGN9H, L= 350mm</v>
       </c>
       <c r="C50" s="18">
-        <f>'Frame Calculator'!D32</f>
+        <f>Configurator!D35</f>
         <v>2</v>
       </c>
       <c r="D50" s="19">
         <v>28</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F50" s="35" t="str">
-        <f>'Frame Calculator'!E32</f>
+        <f>Configurator!E35</f>
         <v>y-Axis</v>
       </c>
     </row>
@@ -2784,7 +3485,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C51" s="18">
         <v>2</v>
@@ -2793,7 +3494,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F51" s="35"/>
     </row>
@@ -2802,7 +3503,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C52" s="18">
         <v>1</v>
@@ -2811,7 +3512,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F52" s="35"/>
     </row>
@@ -2820,7 +3521,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C53" s="18">
         <v>1</v>
@@ -2829,7 +3530,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F53" s="35"/>
     </row>
@@ -2838,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="18">
         <v>2</v>
@@ -2847,7 +3548,7 @@
         <v>6</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F54" s="35"/>
     </row>
@@ -2856,7 +3557,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C55" s="18">
         <v>6</v>
@@ -2865,7 +3566,7 @@
         <v>16</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F55" s="35"/>
     </row>
@@ -2874,7 +3575,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C56" s="18">
         <v>2</v>
@@ -2883,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F56" s="35"/>
     </row>
@@ -2892,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C57" s="18">
         <v>8</v>
@@ -2901,7 +3602,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F57" s="35"/>
     </row>
@@ -2913,7 +3614,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C59" s="15">
         <v>1</v>
@@ -2922,7 +3623,7 @@
         <v>70</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F59" s="35"/>
     </row>
@@ -2931,7 +3632,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" s="15">
         <v>1</v>
@@ -2940,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F60" s="35"/>
     </row>
@@ -2949,7 +3650,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" s="15">
         <v>2</v>
@@ -2958,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F61" s="35"/>
     </row>
@@ -2967,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C62" s="15">
         <v>1</v>
@@ -2976,7 +3677,7 @@
         <v>8</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F62" s="35"/>
     </row>
@@ -2985,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C63" s="15">
         <v>1</v>
@@ -2994,7 +3695,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F63" s="35"/>
     </row>
@@ -3003,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C64" s="15">
         <v>2</v>
@@ -3012,7 +3713,7 @@
         <v>9</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F64" s="35"/>
     </row>
@@ -3021,7 +3722,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C65" s="15">
         <v>1</v>
@@ -3030,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F65" s="35"/>
     </row>
@@ -3039,7 +3740,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C66" s="15">
         <v>1</v>
@@ -3048,7 +3749,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F66" s="35"/>
     </row>
@@ -3057,7 +3758,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C67" s="15">
         <v>1</v>
@@ -3066,7 +3767,7 @@
         <v>50</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F67" s="35"/>
     </row>
@@ -3075,7 +3776,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C68" s="15">
         <v>1</v>
@@ -3084,10 +3785,10 @@
         <v>55</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,7 +3796,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C69" s="15">
         <v>1</v>
@@ -3104,7 +3805,7 @@
         <v>25</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F69" s="35"/>
     </row>
@@ -3113,7 +3814,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C70" s="15">
         <v>1</v>
@@ -3122,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F70" s="35"/>
     </row>
@@ -3131,7 +3832,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C71" s="15">
         <v>4</v>
@@ -3140,7 +3841,7 @@
         <v>40</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F71" s="35"/>
     </row>
@@ -3149,7 +3850,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C72" s="15">
         <v>1</v>
@@ -3158,7 +3859,7 @@
         <v>30</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F72" s="35"/>
     </row>
@@ -3167,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C73" s="15">
         <v>1</v>
@@ -3176,7 +3877,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F73" s="35"/>
     </row>
@@ -3185,7 +3886,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C74" s="15">
         <v>1</v>
@@ -3194,7 +3895,7 @@
         <v>5</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F74" s="35"/>
     </row>
@@ -3203,10 +3904,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B76" s="11" t="str">
-        <f>CONCATENATE('Frame Calculator'!A36,", ",'Frame Calculator'!B36,"x",'Frame Calculator'!B37,"mm")</f>
+        <f>CONCATENATE(Configurator!A39,", ",Configurator!B39,"x",Configurator!B40,"mm")</f>
         <v>Bed Plate
 t = 8mm, 320x320mm</v>
       </c>
@@ -3217,16 +3918,16 @@
         <v>42</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F76" s="35"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B77" s="11" t="str">
-        <f>CONCATENATE('Frame Calculator'!A38,", ",'Frame Calculator'!B38,"x",'Frame Calculator'!B39,"mm")</f>
+        <f>CONCATENATE(Configurator!A41,", ",Configurator!B41,"x",Configurator!B42,"mm")</f>
         <v>Silicone Heater, 280x280mm</v>
       </c>
       <c r="C77" s="12">
@@ -3236,16 +3937,16 @@
         <v>20</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F77" s="35"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B78" s="11" t="str">
-        <f>CONCATENATE('Frame Calculator'!A40,", ",'Frame Calculator'!B40,"x",'Frame Calculator'!B41,"mm")</f>
+        <f>CONCATENATE(Configurator!A43,", ",Configurator!B43,"x",Configurator!B44,"mm")</f>
         <v>Springsteel Sheet, 310x310mm</v>
       </c>
       <c r="C78" s="12">
@@ -3255,7 +3956,7 @@
         <v>37</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F78" s="35"/>
     </row>
@@ -3267,7 +3968,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C80" s="8">
         <v>1</v>
@@ -3276,10 +3977,10 @@
         <v>70</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,21 +3988,22 @@
         <v>10</v>
       </c>
       <c r="B81" s="6" t="str">
-        <f>CONCATENATE('Frame Calculator'!A45,", ",'Frame Calculator'!B45,"x",'Frame Calculator'!B46,"mm, thickness: 3 to 4 mm")</f>
+        <f>CONCATENATE(Configurator!A48,", ",Configurator!B48,"x",Configurator!B49,"mm, thickness: 3 to 4 mm")</f>
         <v>Front + Back, 410x681mm, thickness: 3 to 4 mm</v>
       </c>
       <c r="C81" s="8">
-        <f>'Frame Calculator'!D45</f>
+        <f>IF(Configurator!B16="yes", 2,0)</f>
         <v>2</v>
       </c>
-      <c r="D81" s="55">
+      <c r="D81" s="76">
+        <f>IF(Configurator!B16="yes", 150,15)</f>
         <v>150</v>
       </c>
-      <c r="E81" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="F81" s="79" t="s">
-        <v>355</v>
+      <c r="E81" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" s="70" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3309,39 +4011,39 @@
         <v>10</v>
       </c>
       <c r="B82" s="6" t="str">
-        <f>CONCATENATE('Frame Calculator'!A47,", ",'Frame Calculator'!B47,"x",'Frame Calculator'!B48,"mm, thickness: 3 to 4 mm")</f>
+        <f>CONCATENATE(Configurator!A50,", ",Configurator!B50,"x",Configurator!B51,"mm, thickness: 3 to 4 mm")</f>
         <v>Left+Right, 420x681mm, thickness: 3 to 4 mm</v>
       </c>
       <c r="C82" s="8">
-        <f>'Frame Calculator'!D47</f>
+        <f>IF(Configurator!B16="yes", 2,0)</f>
         <v>2</v>
       </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="77"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="71"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B83" s="6" t="str">
-        <f>CONCATENATE('Frame Calculator'!A49,", ",'Frame Calculator'!B49,"x",'Frame Calculator'!B50,"mm, thickness: 3 to 4 mm")</f>
+        <f>CONCATENATE(Configurator!A52,", ",Configurator!B52,"x",Configurator!B53,"mm, thickness: 3 to 4 mm")</f>
         <v>Inner, Top, Bottom, 460x470mm, thickness: 3 to 4 mm</v>
       </c>
       <c r="C83" s="8">
-        <f>'Frame Calculator'!D49</f>
+        <f>IF(Configurator!B16="yes", 3,1)</f>
         <v>3</v>
       </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="78"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="72"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C84" s="8">
         <v>1</v>
@@ -3350,7 +4052,7 @@
         <v>5</v>
       </c>
       <c r="E84" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F84" s="35"/>
     </row>
@@ -3358,11 +4060,11 @@
       <c r="E85" s="43"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="52"/>
-      <c r="C86" s="52"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="5">
         <f>SUM(D2:D84)</f>
         <v>1172</v>
@@ -3428,660 +4130,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="1">
-        <v>310</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="71"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="1">
-        <v>310</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="71"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B14" s="1">
-        <v>310</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="71"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B18" s="2">
-        <f>B12+100</f>
-        <v>410</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B19" s="2">
-        <f>B13+110</f>
-        <v>420</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B20" s="2">
-        <f>B12+41</f>
-        <v>351</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>4020</v>
-      </c>
-      <c r="B21" s="2">
-        <f>B12+100</f>
-        <v>410</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>4020</v>
-      </c>
-      <c r="B22" s="2">
-        <f>B13+110</f>
-        <v>420</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>3030</v>
-      </c>
-      <c r="B23" s="2">
-        <f>B14+371</f>
-        <v>681</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B24" s="2">
-        <f>B13-26</f>
-        <v>284</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="67" t="s">
-        <v>257</v>
-      </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" s="2">
-        <f>B14+94</f>
-        <v>404</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D29" s="3">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="2">
-        <f>B14+55</f>
-        <v>365</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="3">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="2">
-        <f>B12+40</f>
-        <v>350</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="2">
-        <f>B13+40</f>
-        <v>350</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" s="2">
-        <f>B12+10</f>
-        <v>320</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D36" s="63">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="2">
-        <f>B13+10</f>
-        <v>320</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="B38" s="2">
-        <f>B12-30</f>
-        <v>280</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D38" s="63">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="2">
-        <f>B13-30</f>
-        <v>280</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="B40" s="2">
-        <f>B12</f>
-        <v>310</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D40" s="63">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="2">
-        <f>B14</f>
-        <v>310</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="B45" s="2">
-        <f>B18</f>
-        <v>410</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="63">
-        <v>2</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="2">
-        <f>B23</f>
-        <v>681</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="B47" s="2">
-        <f>B19</f>
-        <v>420</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D47" s="63">
-        <v>2</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="2">
-        <f>B23</f>
-        <v>681</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="B49" s="2">
-        <f>B45+20*2+10</f>
-        <v>460</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" s="63">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="2">
-        <f>B47+20*2+10</f>
-        <v>470</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A45:A46"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
